--- a/Way2Automation/src/test/Resources/testdata/CustomerSuite.xlsx
+++ b/Way2Automation/src/test/Resources/testdata/CustomerSuite.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/DataDrivenGrid/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/SeleniumBootCamp/Way2Automation/src/test/Resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7760" activeTab="1"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="8740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -415,6 +415,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -449,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
